--- a/Capstone Project/Taralynn/Model per Year MSRP v2.xlsx
+++ b/Capstone Project/Taralynn/Model per Year MSRP v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Capstone\Capstone-Project-Data-Modeling-and-PowerBI\Capstone Project\Taralynn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F532019-9821-4A40-96FE-B5C4124AB22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEA2659-0F84-44E9-B0FD-54191619AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4D9D9D0-4D7C-42D8-9AC4-884D62F656DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{A4D9D9D0-4D7C-42D8-9AC4-884D62F656DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Corolla</t>
   </si>
@@ -66,6 +66,114 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>ModYear</t>
+  </si>
+  <si>
+    <t>M1Y1</t>
+  </si>
+  <si>
+    <t>M2Y1</t>
+  </si>
+  <si>
+    <t>M2Y2</t>
+  </si>
+  <si>
+    <t>M1Y2</t>
+  </si>
+  <si>
+    <t>M3Y2</t>
+  </si>
+  <si>
+    <t>M4Y2</t>
+  </si>
+  <si>
+    <t>M5Y2</t>
+  </si>
+  <si>
+    <t>M6Y2</t>
+  </si>
+  <si>
+    <t>M7Y2</t>
+  </si>
+  <si>
+    <t>M3Y1</t>
+  </si>
+  <si>
+    <t>M4Y1</t>
+  </si>
+  <si>
+    <t>M5Y1</t>
+  </si>
+  <si>
+    <t>M6Y1</t>
+  </si>
+  <si>
+    <t>M7Y1</t>
+  </si>
+  <si>
+    <t>M1Y3</t>
+  </si>
+  <si>
+    <t>M2Y3</t>
+  </si>
+  <si>
+    <t>M3Y3</t>
+  </si>
+  <si>
+    <t>M4Y3</t>
+  </si>
+  <si>
+    <t>M5Y3</t>
+  </si>
+  <si>
+    <t>M6Y3</t>
+  </si>
+  <si>
+    <t>M7Y3</t>
+  </si>
+  <si>
+    <t>M1Y4</t>
+  </si>
+  <si>
+    <t>M2Y4</t>
+  </si>
+  <si>
+    <t>M3Y4</t>
+  </si>
+  <si>
+    <t>M4Y4</t>
+  </si>
+  <si>
+    <t>M5Y4</t>
+  </si>
+  <si>
+    <t>M6Y4</t>
+  </si>
+  <si>
+    <t>M7Y4</t>
+  </si>
+  <si>
+    <t>M1Y5</t>
+  </si>
+  <si>
+    <t>M2Y5</t>
+  </si>
+  <si>
+    <t>M3Y5</t>
+  </si>
+  <si>
+    <t>M4Y5</t>
+  </si>
+  <si>
+    <t>M5Y5</t>
+  </si>
+  <si>
+    <t>M6Y5</t>
+  </si>
+  <si>
+    <t>M7Y5</t>
   </si>
 </sst>
 </file>
@@ -432,81 +540,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D16DF94-DF37-4B88-BDF2-98170125B18F}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>16950</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>23795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>23215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>21133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>19650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C11" s="1">
         <v>24005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>23795</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>25650</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>23215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>21133</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>19650</v>
       </c>
     </row>
   </sheetData>
@@ -517,81 +649,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0213759D-CB7D-4B6E-9739-F245DF2C6B31}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>20890</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>28345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C11" s="1">
         <v>25245</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>24505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>28345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>25995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>20200</v>
       </c>
     </row>
   </sheetData>
@@ -601,81 +757,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2256462-7845-4675-8331-A1CA4E29803E}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>22680</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25070</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>32225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C11" s="1">
         <v>27395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25070</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>32225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>27055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>30690</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>21545</v>
       </c>
     </row>
   </sheetData>
@@ -685,81 +865,105 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A67E00-38DA-4334-8363-E444D7380970}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>23360</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>25822</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>28137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>31610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>33514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C11" s="1">
         <v>28490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25822</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>33514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="1">
-        <v>28137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1">
-        <v>31610</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1">
-        <v>22191</v>
       </c>
     </row>
   </sheetData>
@@ -769,81 +973,105 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F8E67A-2C64-4DEE-9072-51FECDAA8019}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:2" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>24062</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>26596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>28981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>34519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>22857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C11" s="2">
         <v>29345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2">
-        <v>26596</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>34519</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="2">
-        <v>28981</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2">
-        <v>32559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2">
-        <v>22857</v>
       </c>
     </row>
   </sheetData>
